--- a/WorkingFolder/dt_3.xlsx
+++ b/WorkingFolder/dt_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="165">
   <si>
     <t>Feature Selection</t>
   </si>
@@ -40,415 +40,388 @@
     <t>Evaluation Metrics</t>
   </si>
   <si>
+    <t>_all</t>
+  </si>
+  <si>
     <t>complete_dict</t>
   </si>
   <si>
-    <t>{'max_depth': 2, 'max_features': 0.75, 'n_estimators': 50, 'random_state': 0}</t>
+    <t>{'max_depth': 3, 'max_features': 1.0, 'n_estimators': 500, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[2 2 0 0 0 0]
+ [0 7 0 0 0 3]
+ [0 3 0 0 0 0]
+ [0 3 0 0 0 0]
+ [0 1 0 0 2 0]
+ [0 0 0 0 2 1]]</t>
+  </si>
+  <si>
+    <t>F1-Score (micro): 0.462, F1-Score (macro): 0.344</t>
+  </si>
+  <si>
+    <t>complete_no_cd_dict</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.25, 'n_estimators': 5, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[2 2 0 0 0]
+ [0 3 0 0 0]
+ [0 3 0 0 0]
+ [3 0 0 0 0]
+ [0 3 0 0 0]]</t>
+  </si>
+  <si>
+    <t>F1-Score (micro): 0.312, F1-Score (macro): 0.175</t>
+  </si>
+  <si>
+    <t>rest_v_all_dict</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3, 'max_features': 0.25, 'n_estimators': 25, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[22  1]
+ [ 1  2]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.67, Average Precision (Relevanz): 0.806, AUC: 0.971</t>
+  </si>
+  <si>
+    <t>stress_v_all_dict</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 0.75, 'n_estimators': 25, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[18  2]
+ [ 1  5]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.77, Average Precision (Relevanz): 0.794, AUC: 0.917</t>
+  </si>
+  <si>
+    <t>stress_v_rest_dict</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.25, 'n_estimators': 25, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[1 2]
+ [0 7]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.88, Average Precision (Relevanz): 0.982, AUC: 0.952</t>
+  </si>
+  <si>
+    <t>stress_v_stress_dict</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.75, 'n_estimators': 25, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[1 2]
+ [2 2]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.543, AUC: 0.375</t>
+  </si>
+  <si>
+    <t>emotion_v_all_dict</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.1, 'n_estimators': 5, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[19  0]
+ [ 7  0]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.237, AUC: 0.383</t>
+  </si>
+  <si>
+    <t>emotion_v_rest_dict</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.75, 'n_estimators': 50, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[0 3]
+ [0 7]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.82, Average Precision (Relevanz): 0.968, AUC: 0.905</t>
+  </si>
+  <si>
+    <t>emotion_v_emotion_dict</t>
+  </si>
+  <si>
+    <t>[[2 2]
+ [2 1]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.33, Average Precision (Relevanz): 0.397, AUC: 0.208</t>
+  </si>
+  <si>
+    <t>_bvp_time_only</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3, 'max_features': 0.5, 'n_estimators': 25, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[ 0  3  0  0  0  1]
+ [ 0 10  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  1  0  0  2  0]
+ [ 0  1  0  0  1  1]]</t>
+  </si>
+  <si>
+    <t>F1-Score (micro): 0.500, F1-Score (macro): 0.285</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'max_features': 0.75, 'n_estimators': 5, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[3 0 0 1 0]
+ [2 0 1 0 0]
+ [0 1 0 0 2]
+ [1 0 0 0 2]
+ [1 0 2 0 0]]</t>
+  </si>
+  <si>
+    <t>F1-Score (micro): 0.188, F1-Score (macro): 0.109</t>
+  </si>
+  <si>
+    <t>[[23  0]
+ [ 3  0]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.140, AUC: 0.457</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 0.5, 'n_estimators': 50, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[20  0]
+ [ 5  1]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.29, Average Precision (Relevanz): 0.849, AUC: 0.850</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 0.25, 'n_estimators': 5, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[2 1]
+ [1 6]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.86, Average Precision (Relevanz): 0.853, AUC: 0.667</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.1, 'n_estimators': 25, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[0 3]
+ [2 2]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.44, Average Precision (Relevanz): 0.643, AUC: 0.333</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.247, AUC: 0.421</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 0.5, 'n_estimators': 25, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[0 3]
+ [2 5]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.67, Average Precision (Relevanz): 0.619, AUC: 0.238</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'max_features': 0.25, 'n_estimators': 5, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[0 4]
+ [2 1]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.25, Average Precision (Relevanz): 0.321, AUC: 0.042</t>
+  </si>
+  <si>
+    <t>_bvp_freq_only</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.1, 'n_estimators': 100, 'random_state': 0}</t>
   </si>
   <si>
     <t>[[ 0  4  0  0  0  0]
  [ 0 10  0  0  0  0]
  [ 0  3  0  0  0  0]
  [ 0  3  0  0  0  0]
- [ 0  1  0  0  2  0]
- [ 0  0  0  0  2  1]]</t>
-  </si>
-  <si>
-    <t>F1-Score (micro): 0.500, F1-Score (macro): 0.286</t>
-  </si>
-  <si>
-    <t>complete_no_cd_dict</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 0.25, 'n_estimators': 100, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[3 1 0 0 0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]]</t>
+  </si>
+  <si>
+    <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 0.1, 'n_estimators': 5, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[1 1 0 0 2]
+ [2 1 0 0 0]
+ [1 1 0 1 0]
+ [0 0 1 0 2]
+ [0 1 1 1 0]]</t>
+  </si>
+  <si>
+    <t>F1-Score (micro): 0.125, F1-Score (macro): 0.107</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 1.0, 'n_estimators': 25, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.158, AUC: 0.471</t>
+  </si>
+  <si>
+    <t>[[20  0]
+ [ 6  0]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.211, AUC: 0.421</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 1.0, 'n_estimators': 5, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[1 2]
+ [4 3]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.638, AUC: 0.405</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.1, 'n_estimators': 500, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[1 2]
+ [1 3]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.67, Average Precision (Relevanz): 0.793, AUC: 0.583</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.379, AUC: 0.508</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3, 'max_features': 1.0, 'n_estimators': 25, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[0 3]
+ [3 4]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.57, Average Precision (Relevanz): 0.585, AUC: 0.190</t>
+  </si>
+  <si>
+    <t>[[1 3]
+ [1 2]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.410, AUC: 0.292</t>
+  </si>
+  <si>
+    <t>_gsr_only</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3, 'max_features': 0.1, 'n_estimators': 50, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[0 3 0 0 1 0]
+ [0 7 0 1 1 1]
+ [0 2 0 1 0 0]
+ [0 3 0 0 0 0]
+ [0 1 0 0 1 1]
+ [0 0 0 0 2 1]]</t>
+  </si>
+  <si>
+    <t>F1-Score (micro): 0.346, F1-Score (macro): 0.187</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.1, 'n_estimators': 1000, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[3 0 0 0 1]
  [0 1 1 0 1]
- [0 2 1 0 0]
- [1 0 0 0 2]
- [1 1 1 0 0]]</t>
-  </si>
-  <si>
-    <t>F1-Score (micro): 0.312, F1-Score (macro): 0.250</t>
-  </si>
-  <si>
-    <t>rest_v_all_dict</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'max_features': 0.1, 'n_estimators': 100, 'random_state': 0}</t>
+ [0 1 0 0 2]
+ [0 3 0 0 0]
+ [0 2 1 0 0]]</t>
+  </si>
+  <si>
+    <t>F1-Score (micro): 0.250, F1-Score (macro): 0.211</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 0.75, 'n_estimators': 5, 'random_state': 0}</t>
   </si>
   <si>
     <t>[[22  1]
  [ 0  3]]</t>
   </si>
   <si>
-    <t>F1-Score: 0.86, Average Precision (Relevanz): 0.639, AUC: 0.957</t>
-  </si>
-  <si>
-    <t>stress_v_all_dict</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 0.5, 'n_estimators': 500, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[18  2]
- [ 0  6]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.86, Average Precision (Relevanz): 0.931, AUC: 0.975</t>
-  </si>
-  <si>
-    <t>stress_v_rest_dict</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 0.1, 'n_estimators': 25, 'random_state': 0}</t>
+    <t>F1-Score: 0.86, Average Precision (Relevanz): 0.750, AUC: 0.978</t>
+  </si>
+  <si>
+    <t>[[16  4]
+ [ 1  5]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.67, Average Precision (Relevanz): 0.569, AUC: 0.821</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.75, 'n_estimators': 100, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[3 0]
+ [0 7]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 1.00, Average Precision (Relevanz): 1.000, AUC: 1.000</t>
   </si>
   <si>
     <t>[[2 1]
- [0 7]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.93, Average Precision (Relevanz): 1.000, AUC: 1.000</t>
-  </si>
-  <si>
-    <t>stress_v_stress_dict</t>
-  </si>
-  <si>
-    <t>[[1 2]
- [2 2]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.668, AUC: 0.417</t>
-  </si>
-  <si>
-    <t>emotion_v_all_dict</t>
-  </si>
-  <si>
-    <t>[[19  0]
+ [3 1]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.33, Average Precision (Relevanz): 0.646, AUC: 0.625</t>
+  </si>
+  <si>
+    <t>[[18  1]
  [ 7  0]]</t>
   </si>
   <si>
-    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.243, AUC: 0.402</t>
-  </si>
-  <si>
-    <t>emotion_v_rest_dict</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 0.25, 'n_estimators': 5, 'random_state': 0}</t>
+    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.280, AUC: 0.523</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 1.0, 'n_estimators': 25, 'random_state': 0}</t>
   </si>
   <si>
     <t>[[3 0]
  [1 6]]</t>
   </si>
   <si>
-    <t>F1-Score: 0.92, Average Precision (Relevanz): 0.957, AUC: 0.857</t>
-  </si>
-  <si>
-    <t>emotion_v_emotion_dict</t>
-  </si>
-  <si>
-    <t>[[0 4]
- [0 3]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.60, Average Precision (Relevanz): 0.643, AUC: 0.500</t>
-  </si>
-  <si>
-    <t>_no_ma</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 0.75, 'n_estimators': 250, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[0 4 0 0 0 0]
- [0 9 0 0 0 1]
- [0 3 0 0 0 0]
- [0 3 0 0 0 0]
- [0 1 0 0 2 0]
- [0 0 0 0 2 1]]</t>
-  </si>
-  <si>
-    <t>F1-Score (micro): 0.462, F1-Score (macro): 0.262</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 0.1, 'n_estimators': 100, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[2 1 0 0 1]
- [0 1 1 0 1]
- [0 2 1 0 0]
- [1 0 2 0 0]
- [1 1 1 0 0]]</t>
-  </si>
-  <si>
-    <t>F1-Score (micro): 0.250, F1-Score (macro): 0.200</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 0.5, 'n_estimators': 25, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[21  2]
- [ 0  3]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.75, Average Precision (Relevanz): 0.589, AUC: 0.942</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.86, Average Precision (Relevanz): 0.915, AUC: 0.975</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 0.25, 'n_estimators': 25, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.543, AUC: 0.333</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 0.1, 'n_estimators': 5, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.553, AUC: 0.632</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 0.5, 'n_estimators': 5, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.92, Average Precision (Relevanz): 0.968, AUC: 0.905</t>
-  </si>
-  <si>
-    <t>[[1 3]
- [3 0]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.360, AUC: 0.208</t>
-  </si>
-  <si>
-    <t>_no_zf</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'max_features': 0.25, 'n_estimators': 500, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[1 3 0 0 0 0]
- [0 9 0 0 0 1]
- [0 3 0 0 0 0]
- [0 3 0 0 0 0]
- [0 0 0 0 3 0]
- [0 0 0 0 2 1]]</t>
-  </si>
-  <si>
-    <t>F1-Score (micro): 0.538, F1-Score (macro): 0.365</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 0.25, 'n_estimators': 5, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[1 2 1 0 0]
- [1 1 1 0 0]
- [0 2 1 0 0]
- [1 0 2 0 0]
- [0 2 1 0 0]]</t>
-  </si>
-  <si>
-    <t>F1-Score (micro): 0.188, F1-Score (macro): 0.142</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'max_features': 0.25, 'n_estimators': 25, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.75, Average Precision (Relevanz): 0.756, AUC: 0.957</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 0.25, 'n_estimators': 250, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[19  1]
- [ 2  4]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.73, Average Precision (Relevanz): 0.931, AUC: 0.975</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.793, AUC: 0.625</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.572, AUC: 0.635</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 0.75, 'n_estimators': 5, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[3 0]
- [2 5]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.83, Average Precision (Relevanz): 0.982, AUC: 0.976</t>
-  </si>
-  <si>
-    <t>[[1 3]
- [1 2]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.410, AUC: 0.250</t>
-  </si>
-  <si>
-    <t>_bvp_sel_only</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 0.5, 'n_estimators': 1000, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 0.5, 'n_estimators': 25, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[1 1 1 1 0]
- [0 1 2 0 0]
- [0 2 1 0 0]
- [1 0 2 0 0]
- [1 1 1 0 0]]</t>
-  </si>
-  <si>
-    <t>F1-Score (micro): 0.188, F1-Score (macro): 0.147</t>
-  </si>
-  <si>
-    <t>[[23  0]
- [ 3  0]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.114, AUC: 0.478</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 0.25, 'n_estimators': 100, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[20  0]
- [ 3  3]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.67, Average Precision (Relevanz): 0.847, AUC: 0.842</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'max_features': 0.25, 'n_estimators': 5, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[2 1]
- [2 5]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.77, Average Precision (Relevanz): 0.740, AUC: 0.595</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.643, AUC: 0.333</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'max_features': 0.1, 'n_estimators': 5, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[14  5]
- [ 6  1]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.15, Average Precision (Relevanz): 0.228, AUC: 0.346</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 0.1, 'n_estimators': 25, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[0 3]
- [1 6]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.75, Average Precision (Relevanz): 0.654, AUC: 0.333</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.467, AUC: 0.458</t>
-  </si>
-  <si>
-    <t>_gsr_only</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 1.0, 'n_estimators': 25, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[1 3 0 0 0 0]
- [0 8 0 0 1 1]
- [0 3 0 0 0 0]
- [0 3 0 0 0 0]
- [0 1 0 0 1 1]
- [0 0 0 0 3 0]]</t>
-  </si>
-  <si>
-    <t>F1-Score (micro): 0.385, F1-Score (macro): 0.204</t>
-  </si>
-  <si>
-    <t>[[2 1 0 1 0]
- [0 3 0 0 0]
- [0 2 0 1 0]
- [0 1 0 1 1]
- [0 3 0 0 0]]</t>
-  </si>
-  <si>
-    <t>F1-Score (micro): 0.375, F1-Score (macro): 0.292</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.86, Average Precision (Relevanz): 0.917, AUC: 0.986</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 0.5, 'n_estimators': 100, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[17  3]
- [ 1  5]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.71, Average Precision (Relevanz): 0.569, AUC: 0.821</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 1.0, 'n_estimators': 25, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[1 2]
- [0 4]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.80, Average Precision (Relevanz): 0.646, AUC: 0.625</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'max_features': 0.5, 'n_estimators': 25, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[16  3]
- [ 7  0]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.275, AUC: 0.489</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 0.5, 'n_estimators': 5, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[2 2]
- [0 3]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.75, Average Precision (Relevanz): 0.511, AUC: 0.542</t>
+    <t>F1-Score: 0.92, Average Precision (Relevanz): 0.957, AUC: 0.929</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.33, Average Precision (Relevanz): 0.444, AUC: 0.500</t>
   </si>
   <si>
     <t>_temp_only</t>
-  </si>
-  <si>
-    <t>[[1 3 0 0 0 0]
- [0 9 0 0 0 1]
- [0 3 0 0 0 0]
- [0 3 0 0 0 0]
- [0 3 0 0 0 0]
- [0 3 0 0 0 0]]</t>
-  </si>
-  <si>
-    <t>F1-Score (micro): 0.385, F1-Score (macro): 0.155</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 1.0, 'n_estimators': 5, 'random_state': 0}</t>
   </si>
   <si>
     <t>[[2 2 0 0 0]
@@ -461,130 +434,169 @@
     <t>F1-Score (micro): 0.438, F1-Score (macro): 0.333</t>
   </si>
   <si>
+    <t>{'max_depth': 3, 'max_features': 0.75, 'n_estimators': 25, 'random_state': 0}</t>
+  </si>
+  <si>
     <t>[[23  0]
  [ 2  1]]</t>
   </si>
   <si>
-    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.833, AUC: 0.971</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'max_features': 1.0, 'n_estimators': 5, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[19  1]
- [ 4  2]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.44, Average Precision (Relevanz): 0.494, AUC: 0.688</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'max_features': 0.75, 'n_estimators': 500, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[3 0]
- [0 7]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 1.00, Average Precision (Relevanz): 1.000, AUC: 1.000</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 0.1, 'n_estimators': 50, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[2 1]
- [3 1]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.33, Average Precision (Relevanz): 0.685, AUC: 0.417</t>
+    <t>F1-Score: 0.50, Average Precision (Relevanz): 1.000, AUC: 1.000</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.541, AUC: 0.708</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 1.0, 'n_estimators': 5, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.82, Average Precision (Relevanz): 0.933, AUC: 0.857</t>
   </si>
   <si>
     <t>{'max_depth': 1, 'max_features': 1.0, 'n_estimators': 100, 'random_state': 0}</t>
   </si>
   <si>
-    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.250, AUC: 0.361</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 0.5, 'n_estimators': 50, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.75, Average Precision (Relevanz): 0.957, AUC: 0.857</t>
-  </si>
-  <si>
-    <t>[[2 2]
- [2 1]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.33, Average Precision (Relevanz): 0.610, AUC: 0.458</t>
-  </si>
-  <si>
-    <t>_simple</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'max_features': 0.5, 'n_estimators': 100, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[2 2 0 0 0 0]
- [0 9 0 0 0 1]
+    <t>F1-Score: 0.33, Average Precision (Relevanz): 0.543, AUC: 0.333</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.75, 'n_estimators': 5, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.315, AUC: 0.538</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.82, Average Precision (Relevanz): 0.910, AUC: 0.714</t>
+  </si>
+  <si>
+    <t>[[3 1]
+ [1 2]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.67, Average Precision (Relevanz): 0.532, AUC: 0.583</t>
+  </si>
+  <si>
+    <t>_red_time</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 0.5, 'n_estimators': 100, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[0 3 0 0 0 1]
+ [0 8 0 0 0 2]
  [0 3 0 0 0 0]
  [0 3 0 0 0 0]
- [0 0 0 0 3 0]
+ [0 1 0 0 2 0]
  [0 0 0 0 2 1]]</t>
   </si>
   <si>
-    <t>F1-Score (micro): 0.577, F1-Score (macro): 0.414</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 0.1, 'n_estimators': 5, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[2 1 0 1 0]
+    <t>F1-Score (micro): 0.423, F1-Score (macro): 0.238</t>
+  </si>
+  <si>
+    <t>[[2 2 0 0 0]
+ [0 3 0 0 0]
+ [0 3 0 0 0]
+ [1 2 0 0 0]
+ [1 2 0 0 0]]</t>
+  </si>
+  <si>
+    <t>F1-Score (micro): 0.312, F1-Score (macro): 0.180</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3, 'max_features': 1.0, 'n_estimators': 5, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.86, Average Precision (Relevanz): 0.917, AUC: 0.993</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'max_features': 1.0, 'n_estimators': 5, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[19  1]
+ [ 2  4]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.73, Average Precision (Relevanz): 0.833, AUC: 0.950</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 0.25, 'n_estimators': 100, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[2 1]
+ [0 7]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.93, Average Precision (Relevanz): 1.000, AUC: 1.000</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.543, AUC: 0.333</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.339, AUC: 0.519</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.82, Average Precision (Relevanz): 0.957, AUC: 0.881</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.50, Average Precision (Relevanz): 0.610, AUC: 0.458</t>
+  </si>
+  <si>
+    <t>_red_freq</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 0.25, 'n_estimators': 25, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>[[0 3 0 0 1 0]
+ [0 6 0 0 2 2]
+ [0 3 0 0 0 0]
+ [0 3 0 0 0 0]
+ [0 1 0 0 2 0]
+ [0 0 0 0 1 2]]</t>
+  </si>
+  <si>
+    <t>F1-Score (micro): 0.385, F1-Score (macro): 0.246</t>
+  </si>
+  <si>
+    <t>[[0 2 0 0 2]
+ [0 0 1 0 2]
  [0 2 0 0 1]
- [0 1 0 1 1]
- [1 0 0 0 2]
- [1 0 0 1 1]]</t>
-  </si>
-  <si>
-    <t>F1-Score (micro): 0.312, F1-Score (macro): 0.264</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'max_features': 0.1, 'n_estimators': 25, 'random_state': 0}</t>
-  </si>
-  <si>
-    <t>[[22  1]
- [ 2  1]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.40, Average Precision (Relevanz): 0.806, AUC: 0.971</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.86, Average Precision (Relevanz): 0.897, AUC: 0.967</t>
+ [1 0 1 0 1]
+ [0 3 0 0 0]]</t>
+  </si>
+  <si>
+    <t>F1-Score (micro): 0.000, F1-Score (macro): 0.000</t>
+  </si>
+  <si>
+    <t>[[21  2]
+ [ 0  3]]</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.75, Average Precision (Relevanz): 0.833, AUC: 0.971</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.67, Average Precision (Relevanz): 0.573, AUC: 0.783</t>
   </si>
   <si>
     <t>{'max_depth': 1, 'max_features': 0.25, 'n_estimators': 50, 'random_state': 0}</t>
   </si>
   <si>
-    <t>[[0 3]
- [3 1]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.25, Average Precision (Relevanz): 0.618, AUC: 0.250</t>
-  </si>
-  <si>
-    <t>[[17  2]
- [ 7  0]]</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.356, AUC: 0.583</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.92, Average Precision (Relevanz): 0.968, AUC: 0.929</t>
+    <t>F1-Score: 0.67, Average Precision (Relevanz): 0.543, AUC: 0.375</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.00, Average Precision (Relevanz): 0.259, AUC: 0.402</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.92, Average Precision (Relevanz): 0.957, AUC: 0.905</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3, 'max_features': 0.25, 'n_estimators': 500, 'random_state': 0}</t>
   </si>
   <si>
     <t>[[1 3]
  [2 1]]</t>
   </si>
   <si>
-    <t>F1-Score: 0.29, Average Precision (Relevanz): 0.633, AUC: 0.500</t>
+    <t>F1-Score: 0.29, Average Precision (Relevanz): 0.411, AUC: 0.333</t>
   </si>
 </sst>
 </file>
@@ -946,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -989,152 +1001,173 @@
       </c>
     </row>
     <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>51.3</v>
+      </c>
+      <c r="F2">
+        <v>46.2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>52.6</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>33.299999999999997</v>
+        <v>31.2</v>
       </c>
       <c r="F3">
         <v>31.2</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>94.699999999999989</v>
+        <v>93.4</v>
       </c>
       <c r="F4">
-        <v>96.2</v>
+        <v>92.300000000000011</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>94.699999999999989</v>
+        <v>92.100000000000009</v>
       </c>
       <c r="F5">
-        <v>92.300000000000011</v>
+        <v>88.5</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>88.9</v>
+        <v>94.399999999999991</v>
       </c>
       <c r="F7">
         <v>42.9</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>75</v>
@@ -1143,226 +1176,232 @@
         <v>73.099999999999994</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>93.100000000000009</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9">
-        <v>96.6</v>
-      </c>
-      <c r="F9">
-        <v>90</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>52.6</v>
+        <v>47.4</v>
       </c>
       <c r="F10">
         <v>42.9</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E11">
-        <v>53.900000000000013</v>
+        <v>46.1</v>
       </c>
       <c r="F11">
-        <v>46.2</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>31.2</v>
+        <v>29.2</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>18.8</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>94.699999999999989</v>
+        <v>89.5</v>
       </c>
       <c r="F13">
-        <v>92.300000000000011</v>
+        <v>88.5</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E14">
-        <v>94.699999999999989</v>
+        <v>88.2</v>
       </c>
       <c r="F14">
-        <v>92.300000000000011</v>
+        <v>80.800000000000011</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>89.3</v>
       </c>
       <c r="F15">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E16">
-        <v>88.9</v>
+        <v>83.3</v>
       </c>
       <c r="F16">
-        <v>42.9</v>
+        <v>28.6</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>75</v>
@@ -1371,50 +1410,50 @@
         <v>73.099999999999994</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>79.3</v>
       </c>
       <c r="F18">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>52.6</v>
@@ -1423,180 +1462,180 @@
         <v>14.3</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>56.599999999999987</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F20">
-        <v>53.8</v>
+        <v>38.5</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E21">
-        <v>33.299999999999997</v>
+        <v>29.2</v>
       </c>
       <c r="F21">
-        <v>18.8</v>
+        <v>12.5</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E22">
-        <v>94.699999999999989</v>
+        <v>88.2</v>
       </c>
       <c r="F22">
-        <v>92.300000000000011</v>
+        <v>88.5</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>96.1</v>
+        <v>75</v>
       </c>
       <c r="F23">
-        <v>88.5</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>71.399999999999991</v>
       </c>
       <c r="F24">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E25">
         <v>88.9</v>
       </c>
       <c r="F25">
-        <v>42.9</v>
+        <v>57.099999999999987</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>75</v>
@@ -1605,674 +1644,674 @@
         <v>73.099999999999994</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>52.6</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F28">
         <v>42.9</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E29">
-        <v>47.4</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>34.599999999999987</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E30">
-        <v>33.299999999999997</v>
+        <v>31.2</v>
       </c>
       <c r="F30">
-        <v>18.8</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E31">
-        <v>89.5</v>
+        <v>94.699999999999989</v>
       </c>
       <c r="F31">
-        <v>88.5</v>
+        <v>96.2</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E32">
-        <v>90.8</v>
+        <v>86.8</v>
       </c>
       <c r="F32">
-        <v>88.5</v>
+        <v>80.800000000000011</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H32" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E33">
-        <v>92.9</v>
+        <v>100</v>
       </c>
       <c r="F33">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E34">
-        <v>88.9</v>
+        <v>38.9</v>
       </c>
       <c r="F34">
         <v>42.9</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E35">
-        <v>76.3</v>
+        <v>75</v>
       </c>
       <c r="F35">
-        <v>57.7</v>
+        <v>69.199999999999989</v>
       </c>
       <c r="G35" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E36">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F36">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E37">
-        <v>57.9</v>
+        <v>63.2</v>
       </c>
       <c r="F37">
         <v>42.9</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E38">
-        <v>42.1</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="F38">
         <v>38.5</v>
       </c>
       <c r="G38" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <v>29.2</v>
       </c>
       <c r="F39">
-        <v>37.5</v>
+        <v>43.8</v>
       </c>
       <c r="G39" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="E40">
-        <v>94.699999999999989</v>
+        <v>92.100000000000009</v>
       </c>
       <c r="F40">
-        <v>96.2</v>
+        <v>92.300000000000011</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="H40" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="E41">
-        <v>86.8</v>
+        <v>75</v>
       </c>
       <c r="F41">
-        <v>84.6</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="G41" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="E42">
-        <v>100</v>
+        <v>85.7</v>
       </c>
       <c r="F42">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H42" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E43">
-        <v>38.9</v>
+        <v>77.8</v>
       </c>
       <c r="F43">
-        <v>71.399999999999991</v>
+        <v>42.9</v>
       </c>
       <c r="G43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H43" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E44">
         <v>76.3</v>
       </c>
       <c r="F44">
-        <v>61.5</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="G44" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="H44" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
         <v>34</v>
       </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>48</v>
-      </c>
       <c r="E45">
-        <v>96.6</v>
+        <v>89.7</v>
       </c>
       <c r="F45">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="E46">
-        <v>57.9</v>
+        <v>63.2</v>
       </c>
       <c r="F46">
         <v>71.399999999999991</v>
       </c>
       <c r="G46" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H46" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="E47">
-        <v>43.4</v>
+        <v>48.7</v>
       </c>
       <c r="F47">
-        <v>38.5</v>
+        <v>42.3</v>
       </c>
       <c r="G47" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="H47" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E48">
         <v>27.1</v>
       </c>
       <c r="F48">
-        <v>43.8</v>
+        <v>31.2</v>
       </c>
       <c r="G48" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H48" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="E49">
-        <v>97.399999999999991</v>
+        <v>96.1</v>
       </c>
       <c r="F49">
-        <v>92.300000000000011</v>
+        <v>96.2</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E50">
-        <v>75</v>
+        <v>94.699999999999989</v>
       </c>
       <c r="F50">
-        <v>80.800000000000011</v>
+        <v>88.5</v>
       </c>
       <c r="G50" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H50" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E51">
-        <v>89.3</v>
+        <v>100</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H51" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="E52">
         <v>83.3</v>
@@ -2281,24 +2320,24 @@
         <v>42.9</v>
       </c>
       <c r="G52" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="H52" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>76.3</v>
@@ -2307,296 +2346,296 @@
         <v>73.099999999999994</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
         <v>34</v>
       </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>138</v>
-      </c>
       <c r="E54">
-        <v>89.7</v>
+        <v>93.100000000000009</v>
       </c>
       <c r="F54">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="H54" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E55">
-        <v>57.9</v>
+        <v>63.2</v>
       </c>
       <c r="F55">
         <v>42.9</v>
       </c>
       <c r="G55" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E56">
-        <v>53.900000000000013</v>
+        <v>46.1</v>
       </c>
       <c r="F56">
-        <v>57.7</v>
+        <v>38.5</v>
       </c>
       <c r="G56" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H56" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="E57">
         <v>33.299999999999997</v>
       </c>
       <c r="F57">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H57" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E58">
-        <v>93.4</v>
+        <v>97.399999999999991</v>
       </c>
       <c r="F58">
-        <v>88.5</v>
+        <v>92.300000000000011</v>
       </c>
       <c r="G58" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H58" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>94.699999999999989</v>
+        <v>88.2</v>
       </c>
       <c r="F59">
-        <v>92.300000000000011</v>
+        <v>80.800000000000011</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="H59" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="E60">
         <v>100</v>
       </c>
       <c r="F60">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H60" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="E61">
         <v>88.9</v>
       </c>
       <c r="F61">
-        <v>14.3</v>
+        <v>57.099999999999987</v>
       </c>
       <c r="G61" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62">
+        <v>75</v>
+      </c>
+      <c r="F62">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G62" t="s">
         <v>35</v>
       </c>
-      <c r="E62">
-        <v>76.3</v>
-      </c>
-      <c r="F62">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="G62" t="s">
-        <v>156</v>
-      </c>
       <c r="H62" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E63">
-        <v>96.6</v>
+        <v>93.100000000000009</v>
       </c>
       <c r="F63">
         <v>90</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="H63" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="E64">
-        <v>47.4</v>
+        <v>73.7</v>
       </c>
       <c r="F64">
         <v>28.6</v>
       </c>
       <c r="G64" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H64" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
